--- a/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="5799" windowWidth="23197" windowHeight="14164" activeTab="4"/>
+    <workbookView xWindow="4935" yWindow="5799" windowWidth="23197" windowHeight="14164" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>type</t>
   </si>
@@ -110,12 +110,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -240,12 +234,21 @@
   </si>
   <si>
     <t>["household_id","num_rooms","electricity","water","location_latitude","location_longitude","location_altitude","location_accuracy","name","age","sex","income_contribution","owner","youngest","write_language","attend_school","school_type","grade_level","post_secondary","currently_school"]</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -470,6 +473,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +525,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,40 +721,41 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +773,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -752,29 +790,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -799,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -813,15 +851,15 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="62.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -838,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -940,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -959,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,16 +1026,16 @@
     </row>
     <row r="5" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1018,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1029,13 +1067,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1046,19 +1084,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1138,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1108,7 +1146,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -1116,7 +1154,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1124,10 +1162,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1202,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1172,15 +1210,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>25</v>
@@ -1188,7 +1226,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>25</v>
@@ -1196,15 +1234,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>25</v>
@@ -1212,7 +1250,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>25</v>
@@ -1220,7 +1258,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>25</v>
@@ -1253,18 +1291,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\household_member\forms\household_member\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="5799" windowWidth="23197" windowHeight="14164" activeTab="4"/>
+    <workbookView xWindow="4940" yWindow="5800" windowWidth="23200" windowHeight="14160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
     <sheet name="survey" sheetId="1" r:id="rId2"/>
     <sheet name="choices" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
-    <sheet name="properties" sheetId="8" r:id="rId5"/>
-    <sheet name="model" sheetId="5" r:id="rId6"/>
-    <sheet name="calculates" sheetId="6" r:id="rId7"/>
+    <sheet name="model" sheetId="5" r:id="rId5"/>
+    <sheet name="calculates" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -158,9 +152,6 @@
     <t>geopoint</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>youngest</t>
   </si>
   <si>
@@ -218,28 +209,7 @@
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
   <si>
-    <t>partition</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>colOrder</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>["household_id","num_rooms","electricity","water","location_latitude","location_longitude","location_altitude","location_accuracy","name","age","sex","income_contribution","owner","youngest","write_language","attend_school","school_type","grade_level","post_secondary","currently_school"]</t>
+    <t>household_owner</t>
   </si>
 </sst>
 </file>
@@ -437,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,15 +657,15 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -704,20 +674,20 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" ht="24">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -738,16 +708,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="36.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -778,7 +748,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -791,7 +761,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -799,10 +769,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -813,21 +783,21 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62.55" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="62.5" customHeight="1">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="42" customHeight="1">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -838,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -860,14 +830,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="22.25" customHeight="1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -881,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="22.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -892,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="22.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,8 +873,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="22.25" customHeight="1"/>
+    <row r="5" spans="1:4" ht="22.25" customHeight="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -915,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="22.25" customHeight="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -944,14 +914,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -962,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -970,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -978,7 +948,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -986,18 +956,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1016,73 +986,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="46.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1106,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1114,7 +1032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1130,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1154,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1162,65 +1080,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>25</v>
@@ -1237,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1245,13 +1163,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>

--- a/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\household_member\forms\household_member\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="5800" windowWidth="23200" windowHeight="14160" activeTab="4"/>
+    <workbookView xWindow="4935" yWindow="5799" windowWidth="23197" windowHeight="14164" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -86,9 +91,6 @@
     <t>table_id</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -96,9 +98,6 @@
   </si>
   <si>
     <t>data_value</t>
-  </si>
-  <si>
-    <t>display.image</t>
   </si>
   <si>
     <t>select_one</t>
@@ -218,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -694,38 +693,38 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -746,47 +745,47 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -799,7 +798,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -807,12 +806,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -821,23 +820,23 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="62.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" customHeight="1">
+    <row r="7" spans="1:6" ht="42.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -846,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -862,34 +861,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.25" customHeight="1">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.25" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.25" customHeight="1">
+    <row r="3" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -911,8 +907,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.25" customHeight="1"/>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1">
+    <row r="4" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -923,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1">
+    <row r="6" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -952,25 +948,25 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+    <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -986,7 +982,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+    <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -994,18 +990,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+    <row r="5" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1026,19 +1022,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1054,39 +1050,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1102,84 +1098,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1201,26 +1197,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+    <row r="1" spans="1:2" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
